--- a/biology/Médecine/Arvid_Lindau/Arvid_Lindau.xlsx
+++ b/biology/Médecine/Arvid_Lindau/Arvid_Lindau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arvid Vilhelm Lindau est un pathologiste suédois, né en 1892 à Malmö, mort en 1958.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arvid Vilhelm Lindau a étudié la médecine à l'Université de Lund, et y a reçu son diplôme en 1923. Quand il a publié sa thèse sur les kystes cérébelleux et leur rapport à l'angiomatose de la rétine : Kleinhirncysten. Bau, und Pathogenese zur Beziehungen retinae Angiomatosae, il travaillait à l'Institut d'Anatomie Pathologique de Lund. 
 Lindau a ensuite reçu une formation de bactériologiste à Copenhague puis à l'Université Harvard, Boston. En 1933 il obtient la chaire de pathologie générale, bactériologie et science de la santé générale (hälsovårdslära de l'allmän) à Lund.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ressource relative à la recherche : Who Named It?  
